--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H2">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>6.142700399199556</v>
+        <v>2.667278473678</v>
       </c>
       <c r="R2">
-        <v>55.284303592796</v>
+        <v>24.005506263102</v>
       </c>
       <c r="S2">
-        <v>0.02321050464436582</v>
+        <v>0.01481765712697589</v>
       </c>
       <c r="T2">
-        <v>0.02321050464436582</v>
+        <v>0.01481765712697589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H3">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>11.38056016850433</v>
+        <v>5.044101466222001</v>
       </c>
       <c r="R3">
-        <v>102.425041516539</v>
+        <v>45.39691319599801</v>
       </c>
       <c r="S3">
-        <v>0.04300202312992105</v>
+        <v>0.02802173330521805</v>
       </c>
       <c r="T3">
-        <v>0.04300202312992105</v>
+        <v>0.02802173330521805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H4">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>5.545057061768556</v>
+        <v>1.331562652099333</v>
       </c>
       <c r="R4">
-        <v>49.905513555917</v>
+        <v>11.984063868894</v>
       </c>
       <c r="S4">
-        <v>0.02095227901758382</v>
+        <v>0.007397292414948848</v>
       </c>
       <c r="T4">
-        <v>0.02095227901758382</v>
+        <v>0.007397292414948846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I5">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J5">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>35.76824335157867</v>
+        <v>35.041804542892</v>
       </c>
       <c r="R5">
-        <v>321.914190164208</v>
+        <v>315.376240886028</v>
       </c>
       <c r="S5">
-        <v>0.1351521195044456</v>
+        <v>0.1946693792759801</v>
       </c>
       <c r="T5">
-        <v>0.1351521195044456</v>
+        <v>0.19466937927598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I6">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J6">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
         <v>66.26770298570801</v>
@@ -818,10 +818,10 @@
         <v>596.4093268713721</v>
       </c>
       <c r="S6">
-        <v>0.2503958728186806</v>
+        <v>0.3681400765329458</v>
       </c>
       <c r="T6">
-        <v>0.2503958728186806</v>
+        <v>0.3681400765329458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I7">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J7">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>32.28823440739068</v>
+        <v>17.49362080185734</v>
       </c>
       <c r="R7">
-        <v>290.594109666516</v>
+        <v>157.442587216716</v>
       </c>
       <c r="S7">
-        <v>0.1220027294133977</v>
+        <v>0.097183131611232</v>
       </c>
       <c r="T7">
-        <v>0.1220027294133977</v>
+        <v>0.09718313161123196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H8">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>28.56131019302844</v>
+        <v>15.38515654128133</v>
       </c>
       <c r="R8">
-        <v>257.051791737256</v>
+        <v>138.466408871532</v>
       </c>
       <c r="S8">
-        <v>0.1079203574653981</v>
+        <v>0.08546988127535063</v>
       </c>
       <c r="T8">
-        <v>0.1079203574653981</v>
+        <v>0.08546988127535063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H9">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>52.91544239817267</v>
+        <v>29.09493381878534</v>
       </c>
       <c r="R9">
-        <v>476.2389815835539</v>
+        <v>261.854404369068</v>
       </c>
       <c r="S9">
-        <v>0.1999436797701387</v>
+        <v>0.1616324495973352</v>
       </c>
       <c r="T9">
-        <v>0.1999436797701387</v>
+        <v>0.1616324495973352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H10">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>25.78248725916244</v>
+        <v>7.680600300733778</v>
       </c>
       <c r="R10">
-        <v>232.042385332462</v>
+        <v>69.12540270660401</v>
       </c>
       <c r="S10">
-        <v>0.09742043423606861</v>
+        <v>0.04266839886001354</v>
       </c>
       <c r="T10">
-        <v>0.09742043423606861</v>
+        <v>0.04266839886001354</v>
       </c>
     </row>
   </sheetData>
